--- a/data_year/zb/运输和邮电/邮政业网点及邮递线路.xlsx
+++ b/data_year/zb/运输和邮电/邮政业网点及邮递线路.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,691 +483,397 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239356</v>
+        <v>171043</v>
       </c>
       <c r="C2" t="n">
-        <v>3364498</v>
+        <v>3690561.31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>1461321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64394</v>
+      </c>
       <c r="F2" t="n">
-        <v>1070304</v>
+        <v>1753027.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1597044</v>
+        <v>2529232</v>
       </c>
       <c r="H2" t="n">
-        <v>58437</v>
+        <v>75739</v>
       </c>
       <c r="I2" t="n">
-        <v>3073331</v>
+        <v>4635568.79</v>
       </c>
       <c r="J2" t="n">
-        <v>184925</v>
+        <v>269700.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225846</v>
+        <v>148206</v>
       </c>
       <c r="C3" t="n">
-        <v>3492800</v>
+        <v>3632579</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1171464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75262</v>
+      </c>
       <c r="F3" t="n">
-        <v>1074100</v>
+        <v>2017482.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1636435</v>
+        <v>2718291.5</v>
       </c>
       <c r="H3" t="n">
-        <v>57100</v>
+        <v>78667</v>
       </c>
       <c r="I3" t="n">
-        <v>3102600</v>
+        <v>5140271.51</v>
       </c>
       <c r="J3" t="n">
-        <v>180399</v>
+        <v>309027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217541</v>
+        <v>150271</v>
       </c>
       <c r="C4" t="n">
-        <v>3511200</v>
+        <v>3731657.16</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>1327673.89</v>
+      </c>
+      <c r="E4" t="n">
+        <v>89052</v>
+      </c>
       <c r="F4" t="n">
-        <v>1112800</v>
+        <v>2289076.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1601388</v>
+        <v>3160292</v>
       </c>
       <c r="H4" t="n">
-        <v>76400</v>
+        <v>95572</v>
       </c>
       <c r="I4" t="n">
-        <v>3081000</v>
+        <v>5855106.69</v>
       </c>
       <c r="J4" t="n">
-        <v>177685</v>
+        <v>320144.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275962</v>
+        <v>147351</v>
       </c>
       <c r="C5" t="n">
-        <v>3531800</v>
+        <v>3744733.32</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>1282319.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>117651</v>
+      </c>
       <c r="F5" t="n">
-        <v>1137500</v>
+        <v>2070846.97</v>
       </c>
       <c r="G5" t="n">
-        <v>1756337</v>
+        <v>3334949</v>
       </c>
       <c r="H5" t="n">
-        <v>63600</v>
+        <v>125115</v>
       </c>
       <c r="I5" t="n">
-        <v>3270200</v>
+        <v>5897228.82</v>
       </c>
       <c r="J5" t="n">
-        <v>191351</v>
+        <v>395809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222946</v>
+        <v>142330</v>
       </c>
       <c r="C6" t="n">
-        <v>3530500</v>
+        <v>3775875.38</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>1435111.44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130456</v>
+      </c>
       <c r="F6" t="n">
-        <v>1194600</v>
+        <v>2361996.98</v>
       </c>
       <c r="G6" t="n">
-        <v>1762990</v>
+        <v>3622873</v>
       </c>
       <c r="H6" t="n">
-        <v>66400</v>
+        <v>137562</v>
       </c>
       <c r="I6" t="n">
-        <v>3336400</v>
+        <v>6305555.83</v>
       </c>
       <c r="J6" t="n">
-        <v>195998</v>
+        <v>232976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202259</v>
+        <v>129572</v>
       </c>
       <c r="C7" t="n">
-        <v>3565226</v>
+        <v>3756042.82</v>
       </c>
       <c r="D7" t="n">
-        <v>941286</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>1371040.67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>183270</v>
+      </c>
       <c r="F7" t="n">
-        <v>1229802</v>
+        <v>2486461.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1813959</v>
+        <v>3558820.65</v>
       </c>
       <c r="H7" t="n">
-        <v>65917</v>
+        <v>188637</v>
       </c>
       <c r="I7" t="n">
-        <v>3406226</v>
+        <v>6376429.46</v>
       </c>
       <c r="J7" t="n">
-        <v>200180</v>
+        <v>218014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197491</v>
+        <v>127678</v>
       </c>
       <c r="C8" t="n">
-        <v>3566982</v>
+        <v>3767660.23</v>
       </c>
       <c r="D8" t="n">
-        <v>985785</v>
+        <v>1474841.22</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1230633</v>
+        <v>2644714.13</v>
       </c>
       <c r="G8" t="n">
-        <v>1777368</v>
+        <v>3712222</v>
       </c>
       <c r="H8" t="n">
-        <v>62799</v>
+        <v>216708</v>
       </c>
       <c r="I8" t="n">
-        <v>3369392</v>
+        <v>6585048.71</v>
       </c>
       <c r="J8" t="n">
-        <v>204733</v>
+        <v>203729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195336</v>
+        <v>125409</v>
       </c>
       <c r="C9" t="n">
-        <v>3637553</v>
+        <v>3805331.57</v>
       </c>
       <c r="D9" t="n">
-        <v>1024046</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46981</v>
-      </c>
+        <v>1628445.87</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1302915</v>
+        <v>3156199.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1855335</v>
+        <v>5996105</v>
       </c>
       <c r="H9" t="n">
-        <v>70655</v>
+        <v>278025</v>
       </c>
       <c r="I9" t="n">
-        <v>3532980</v>
+        <v>9384667.800000001</v>
       </c>
       <c r="J9" t="n">
-        <v>211534</v>
+        <v>215205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224023</v>
+        <v>122060</v>
       </c>
       <c r="C10" t="n">
-        <v>3656936</v>
+        <v>4030582.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1111749</v>
-      </c>
-      <c r="E10" t="n">
-        <v>48157</v>
-      </c>
+        <v>1711862.1</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1385102</v>
+        <v>3072495.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1908316</v>
+        <v>6544859</v>
       </c>
       <c r="H10" t="n">
-        <v>69146</v>
+        <v>274635</v>
       </c>
       <c r="I10" t="n">
-        <v>3693464</v>
+        <v>9851314.800000001</v>
       </c>
       <c r="J10" t="n">
-        <v>236860</v>
+        <v>220980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206597</v>
+        <v>119234</v>
       </c>
       <c r="C11" t="n">
-        <v>3676051</v>
+        <v>4198813</v>
       </c>
       <c r="D11" t="n">
-        <v>1324378</v>
-      </c>
-      <c r="E11" t="n">
-        <v>35783</v>
-      </c>
+        <v>2209984</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1450782</v>
+        <v>3282155</v>
       </c>
       <c r="G11" t="n">
-        <v>2178332</v>
+        <v>8724542</v>
       </c>
       <c r="H11" t="n">
-        <v>65672</v>
+        <v>318516</v>
       </c>
       <c r="I11" t="n">
-        <v>4027751</v>
+        <v>12227021</v>
       </c>
       <c r="J11" t="n">
-        <v>248876</v>
+        <v>207900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171043</v>
+        <v>99582</v>
       </c>
       <c r="C12" t="n">
-        <v>3690561.31</v>
+        <v>4104128</v>
       </c>
       <c r="D12" t="n">
-        <v>1461321</v>
-      </c>
-      <c r="E12" t="n">
-        <v>64394</v>
-      </c>
+        <v>2193834</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1753027.28</v>
+        <v>3364560.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2529232</v>
+        <v>8257969.47</v>
       </c>
       <c r="H12" t="n">
-        <v>75739</v>
+        <v>349075</v>
       </c>
       <c r="I12" t="n">
-        <v>4635568.79</v>
+        <v>11874423.17</v>
       </c>
       <c r="J12" t="n">
-        <v>269700.01</v>
+        <v>240879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148206</v>
+        <v>95186</v>
       </c>
       <c r="C13" t="n">
-        <v>3632579</v>
+        <v>4155496</v>
       </c>
       <c r="D13" t="n">
-        <v>1171464</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75262</v>
-      </c>
+        <v>2338233</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>2017482.75</v>
+        <v>4040568.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2718291.5</v>
+        <v>7522915.86</v>
       </c>
       <c r="H13" t="n">
-        <v>78667</v>
+        <v>412522</v>
       </c>
       <c r="I13" t="n">
-        <v>5140271.51</v>
+        <v>11927443.36</v>
       </c>
       <c r="J13" t="n">
-        <v>309027</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>150271</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3731657.16</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1327673.89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>89052</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2289076.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3160292</v>
-      </c>
-      <c r="H14" t="n">
-        <v>95572</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5855106.69</v>
-      </c>
-      <c r="J14" t="n">
-        <v>320144.01</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>147351</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3744733.32</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1282319.34</v>
-      </c>
-      <c r="E15" t="n">
-        <v>117651</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2070846.97</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3334949</v>
-      </c>
-      <c r="H15" t="n">
-        <v>125115</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5897228.82</v>
-      </c>
-      <c r="J15" t="n">
-        <v>395809</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>142330</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3775875.38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1435111.44</v>
-      </c>
-      <c r="E16" t="n">
-        <v>130456</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2361996.98</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3622873</v>
-      </c>
-      <c r="H16" t="n">
-        <v>137562</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6305555.83</v>
-      </c>
-      <c r="J16" t="n">
-        <v>232976</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>129572</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3756042.82</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1371040.67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>183270</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2486461.31</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3558820.65</v>
-      </c>
-      <c r="H17" t="n">
-        <v>188637</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6376429.46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>218014</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>127678</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3767660.23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1474841.22</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>2644714.13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3712222</v>
-      </c>
-      <c r="H18" t="n">
-        <v>216708</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6585048.71</v>
-      </c>
-      <c r="J18" t="n">
-        <v>203729</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>125409</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3805331.57</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1628445.87</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>3156199.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5996105</v>
-      </c>
-      <c r="H19" t="n">
-        <v>278025</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9384667.800000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>215205</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>122060</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4030582.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1711862.1</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>3072495.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6544859</v>
-      </c>
-      <c r="H20" t="n">
-        <v>274635</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9851314.800000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>220980</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>119234</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4198813</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2209984</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>3282155</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8724542</v>
-      </c>
-      <c r="H21" t="n">
-        <v>318516</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12227021</v>
-      </c>
-      <c r="J21" t="n">
-        <v>207900</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>99582</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4104128</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2193834</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>3364560.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8257969.47</v>
-      </c>
-      <c r="H22" t="n">
-        <v>349075</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11874423.17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>240879</v>
+        <v>359307</v>
       </c>
     </row>
   </sheetData>
